--- a/TestData/tryeditordata.xlsx
+++ b/TestData/tryeditordata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golda\git\DsAlgoProject\DsAlgoProject\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A6F66F-AD9B-45A6-9CA4-D7F04125342F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAE68F5-EDC3-44FC-B7FE-C8EFD66AEA8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E8BF74E7-68B1-4019-8BF3-87723F6AC7A6}"/>
   </bookViews>
@@ -41,10 +41,10 @@
     <t>print("Welcome")</t>
   </si>
   <si>
-    <t>println("DSAlgo")</t>
+    <t>print("Golda")</t>
   </si>
   <si>
-    <t>print("Golda")</t>
+    <t>print("DSAlgo")</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -435,12 +435,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/tryeditordata.xlsx
+++ b/TestData/tryeditordata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golda\git\DsAlgoProject\DsAlgoProject\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAE68F5-EDC3-44FC-B7FE-C8EFD66AEA8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273D4229-4D1F-43ED-B560-98563598FAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E8BF74E7-68B1-4019-8BF3-87723F6AC7A6}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{E8BF74E7-68B1-4019-8BF3-87723F6AC7A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>print("Welcome")</t>
   </si>
@@ -45,6 +45,15 @@
   </si>
   <si>
     <t>print("DSAlgo")</t>
+  </si>
+  <si>
+    <t>Print("NumpyNinja")</t>
+  </si>
+  <si>
+    <t>Print("Plainsboro")</t>
+  </si>
+  <si>
+    <t>print("Correct Data");</t>
   </si>
 </sst>
 </file>
@@ -416,15 +425,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22158F1-5C67-4233-8B80-3AA3AD47E2AC}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.21875" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -443,6 +452,21 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
